--- a/data/match_6.xlsx
+++ b/data/match_6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton.shevchuk\dev\euroleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA714C9-43E0-4589-BFA6-E3878A1DA212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1717751-C8DE-44F8-81EE-773497CBEF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="52">
   <si>
     <t>№</t>
   </si>
@@ -129,9 +129,6 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Оксанич Кирилл</t>
-  </si>
-  <si>
     <t>Дробышев Артемий</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
   </si>
   <si>
     <t>Зубатов Михаил</t>
-  </si>
-  <si>
-    <t>Фёдоров Михаил</t>
   </si>
   <si>
     <t>Гришин Антон</t>
@@ -552,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" activeCellId="1" sqref="A19:XFD19 A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +630,7 @@
         <v>13.5</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -678,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -696,7 +690,7 @@
         <v>5</v>
       </c>
       <c r="V2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W2">
         <v>2</v>
@@ -707,7 +701,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -778,7 +772,7 @@
         <v>8.5</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>13</v>
@@ -849,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -920,7 +914,7 @@
         <v>13.5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -982,61 +976,61 @@
         <v>17.5</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
         <v>49</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
-        <v>51</v>
-      </c>
       <c r="S7">
         <v>2</v>
       </c>
       <c r="T7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1053,7 +1047,7 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>13</v>
@@ -1124,7 +1118,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -1337,7 +1331,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1408,7 +1402,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -1479,7 +1473,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -1547,19 +1541,19 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>21</v>
@@ -1580,22 +1574,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R15" t="s">
         <v>21</v>
@@ -1604,27 +1598,27 @@
         <v>5</v>
       </c>
       <c r="T15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W15">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -1633,10 +1627,10 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="s">
         <v>21</v>
@@ -1651,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1663,16 +1657,16 @@
         <v>3</v>
       </c>
       <c r="P16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T16" t="s">
         <v>21</v>
@@ -1681,30 +1675,24 @@
         <v>5</v>
       </c>
       <c r="V16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="W16">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C17">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1728,31 +1716,28 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s">
         <v>21</v>
       </c>
       <c r="U17">
         <v>5</v>
-      </c>
-      <c r="V17" t="s">
-        <v>20</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -1760,37 +1745,43 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>6</v>
+        <v>17.5</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
         <v>21</v>
@@ -1799,169 +1790,33 @@
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="S18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U18">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="V18" t="s">
+        <v>21</v>
       </c>
       <c r="W18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
-        <v>20</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19" t="s">
-        <v>20</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19" t="s">
-        <v>29</v>
-      </c>
-      <c r="W19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20" t="s">
-        <v>21</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20" t="s">
-        <v>23</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20" t="s">
-        <v>20</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20" t="s">
-        <v>21</v>
-      </c>
-      <c r="W20">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W20">
-    <sortCondition ref="B1:B20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W18">
+    <sortCondition ref="B1:B18"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/match_6.xlsx
+++ b/data/match_6.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton.shevchuk\dev\euroleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1717751-C8DE-44F8-81EE-773497CBEF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392596C2-62BB-4298-A64B-358DFD4435E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="52">
   <si>
     <t>№</t>
   </si>
@@ -38,9 +38,6 @@
 2</t>
   </si>
   <si>
-    <t>унион берлин– майнц</t>
-  </si>
-  <si>
     <t>3
 1</t>
   </si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>Махмудов Руслан</t>
+  </si>
+  <si>
+    <t>унион берлин – майнц</t>
   </si>
 </sst>
 </file>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" activeCellId="1" sqref="A19:XFD19 A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,58 +571,58 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -630,67 +630,67 @@
         <v>13.5</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
         <v>29</v>
       </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2">
+        <v>5</v>
+      </c>
+      <c r="V2" t="s">
         <v>42</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2">
-        <v>5</v>
-      </c>
-      <c r="V2" t="s">
-        <v>43</v>
       </c>
       <c r="W2">
         <v>2</v>
@@ -701,67 +701,67 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U3">
         <v>5</v>
       </c>
       <c r="V3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -772,67 +772,67 @@
         <v>8.5</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4">
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S4">
         <v>2</v>
       </c>
       <c r="T4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -843,67 +843,67 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5">
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q5">
         <v>5</v>
       </c>
       <c r="R5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5" t="s">
         <v>30</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U5">
-        <v>2</v>
-      </c>
-      <c r="V5" t="s">
-        <v>31</v>
       </c>
       <c r="W5">
         <v>2</v>
@@ -914,7 +914,7 @@
         <v>13.5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -926,46 +926,49 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U6">
         <v>5</v>
+      </c>
+      <c r="V6" t="s">
+        <v>22</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -976,67 +979,67 @@
         <v>17.5</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
         <v>47</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
         <v>48</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
-        <v>49</v>
-      </c>
       <c r="S7">
         <v>2</v>
       </c>
       <c r="T7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1047,67 +1050,67 @@
         <v>8.5</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M8">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8">
         <v>3</v>
       </c>
       <c r="P8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S8">
         <v>5</v>
       </c>
       <c r="T8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1118,67 +1121,67 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
         <v>21</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="s">
-        <v>22</v>
       </c>
       <c r="Q9">
         <v>3</v>
       </c>
       <c r="R9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W9">
         <v>5</v>
@@ -1189,67 +1192,67 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10">
         <v>6</v>
       </c>
       <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
         <v>28</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
         <v>29</v>
       </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
         <v>30</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
         <v>31</v>
       </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10" t="s">
-        <v>32</v>
-      </c>
       <c r="U10">
         <v>2</v>
       </c>
       <c r="V10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W10">
         <v>5</v>
@@ -1260,67 +1263,67 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11">
         <v>5</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O11">
         <v>3</v>
       </c>
       <c r="P11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S11">
         <v>3</v>
       </c>
       <c r="T11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U11">
         <v>5</v>
       </c>
       <c r="V11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W11">
         <v>5</v>
@@ -1331,67 +1334,67 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
         <v>29</v>
       </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
-      <c r="N12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
-        <v>30</v>
-      </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -1402,67 +1405,67 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
         <v>21</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13" t="s">
-        <v>30</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13" t="s">
-        <v>22</v>
       </c>
       <c r="U13">
         <v>3</v>
       </c>
       <c r="V13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W13">
         <v>5</v>
@@ -1473,67 +1476,67 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
         <v>21</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-      <c r="N14" t="s">
-        <v>22</v>
-      </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U14">
         <v>5</v>
       </c>
       <c r="V14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W14">
         <v>5</v>
@@ -1544,67 +1547,67 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O15">
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q15">
         <v>3</v>
       </c>
       <c r="R15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S15">
         <v>5</v>
       </c>
       <c r="T15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U15">
         <v>5</v>
       </c>
       <c r="V15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W15">
         <v>5</v>
@@ -1615,67 +1618,67 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O16">
         <v>3</v>
       </c>
       <c r="P16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U16">
         <v>5</v>
       </c>
       <c r="V16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -1686,7 +1689,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -1698,46 +1701,49 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q17">
         <v>5</v>
       </c>
       <c r="R17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S17">
         <v>5</v>
       </c>
       <c r="T17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U17">
         <v>5</v>
+      </c>
+      <c r="V17" t="s">
+        <v>20</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -1748,67 +1754,67 @@
         <v>17.5</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M18">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W18">
         <v>0</v>
